--- a/biology/Médecine/Frans_Van_den_Zype_(médecin)/Frans_Van_den_Zype_(médecin).xlsx
+++ b/biology/Médecine/Frans_Van_den_Zype_(médecin)/Frans_Van_den_Zype_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frans_Van_den_Zype_(m%C3%A9decin)</t>
+          <t>Frans_Van_den_Zype_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frans Van den Zype, en latin Zypœus, est un médecin belge.
 Il naquit à Louvain et se fit une réputation distinguée vers la fin du XVIIe siècle. Il commença par être lecteur d'anatomie et de chirurgie à Bruxelles. Le talent qu'il déploya dans ces fonctions lui valut l'estime publique, celle du prince de Parme, gouverneur des Pays-Bas puis la chaire de professeur d'anatomie à l'université de Louvain, sa ville natale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frans_Van_den_Zype_(m%C3%A9decin)</t>
+          <t>Frans_Van_den_Zype_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Frans Van den Zype (médecin) », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]
  Portail du Brabant flamand   Portail de la médecine   Portail du XVIIe siècle                   </t>
